--- a/data/Output/xlsx/nsga2/results_summer_nsga2.xlsx
+++ b/data/Output/xlsx/nsga2/results_summer_nsga2.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3112347292938601</v>
+        <v>0.4716246627895222</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3825317998491808</v>
+        <v>0.4493609388057067</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-2.653971644159737</v>
+        <v>-3.117626273302094</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>2.653971644159737</v>
+        <v>3.117626273302094</v>
       </c>
       <c r="V2">
         <v>3.508510869565217</v>
@@ -674,7 +674,7 @@
         <v>106.1251601262854</v>
       </c>
       <c r="C3">
-        <v>46.73014177920132</v>
+        <v>44.41186863348953</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-0.445424084594065</v>
+        <v>-0.4184796958442699</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001590534910186518</v>
+        <v>0.01281736355593445</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-0.0149873499205451</v>
+        <v>-0.1207759172347275</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>0.0149873499205451</v>
+        <v>0.1207759172347275</v>
       </c>
       <c r="V3">
         <v>3.527606521739131</v>
@@ -745,7 +745,7 @@
         <v>119.3189063050656</v>
       </c>
       <c r="C4">
-        <v>46.65520502959859</v>
+        <v>43.80798904731589</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0.4837014122408134</v>
+        <v>-0.3845211179925961</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006999827589143564</v>
+        <v>0.04832495019256742</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-0.05866486549287448</v>
+        <v>-0.4050066472199623</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>0.05866486549287448</v>
+        <v>0.4050066472199623</v>
       </c>
       <c r="V4">
         <v>3.495541304347826</v>
@@ -816,7 +816,7 @@
         <v>133.2452038018512</v>
       </c>
       <c r="C5">
-        <v>46.36188070213421</v>
+        <v>41.78295581121608</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07400475012051036</v>
+        <v>0.403883995318772</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2579427828623857</v>
+        <v>0.3953924683616614</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-1.935850413392531</v>
+        <v>-2.967404882727705</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>1.935850413392531</v>
+        <v>2.967404882727705</v>
       </c>
       <c r="V5">
         <v>3.408865217391304</v>
@@ -887,28 +887,28 @@
         <v>150.7319573651624</v>
       </c>
       <c r="C6">
-        <v>36.68262863517156</v>
+        <v>26.94593139757755</v>
       </c>
       <c r="D6">
-        <v>-0.01519808844317083</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.0007599044221585416</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5851644070023122</v>
+        <v>0.6050372625090877</v>
       </c>
       <c r="H6">
-        <v>0.002290837619247993</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5019633746431166</v>
+        <v>0.5111982467789598</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -932,16 +932,16 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01519808844317083</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-3.321327638591141</v>
+        <v>-3.382594488018902</v>
       </c>
       <c r="T6">
         <v>-0.008844565217391305</v>
       </c>
       <c r="U6">
-        <v>3.330172203808532</v>
+        <v>3.391439053236294</v>
       </c>
       <c r="V6">
         <v>3.437882608695652</v>
@@ -958,19 +958,19 @@
         <v>74.54327405841806</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>10.03295895748304</v>
       </c>
       <c r="D7">
-        <v>9.570888597260158</v>
+        <v>9.322954167364371</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.4785444298630079</v>
+        <v>0.4661477083682185</v>
       </c>
       <c r="G7">
-        <v>-1.159882989793301</v>
+        <v>-1.149082378547393</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01803458416607618</v>
+        <v>0.00855324938142641</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01626013996068951</v>
+        <v>0.1434524977476502</v>
       </c>
       <c r="P7">
-        <v>9.554628457299469</v>
+        <v>9.17950166961672</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>-0</v>
       </c>
       <c r="T7">
-        <v>-0.2419344252567018</v>
+        <v>-0.1147420674697411</v>
       </c>
       <c r="U7">
-        <v>0.2419344252567018</v>
+        <v>0.1147420674697411</v>
       </c>
       <c r="V7">
         <v>3.895791304347826</v>
@@ -1029,7 +1029,7 @@
         <v>100.4097194560142</v>
       </c>
       <c r="C8">
-        <v>67.8544429863008</v>
+        <v>56.64772979430489</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6038535570145454</v>
+        <v>-0.03676502269433524</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5062016957427456</v>
+        <v>0.2392772875307121</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.997666953221009</v>
+        <v>-1.339314657664967</v>
       </c>
       <c r="T8">
         <v>-1.043694565217391</v>
       </c>
       <c r="U8">
-        <v>5.0413615184384</v>
+        <v>2.383009222882358</v>
       </c>
       <c r="V8">
         <v>5.07114347826087</v>
@@ -1100,7 +1100,7 @@
         <v>114.0987568381507</v>
       </c>
       <c r="C9">
-        <v>47.86610822019575</v>
+        <v>49.95115650598005</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6822939141213125</v>
+        <v>0.5358393648169912</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5698416092149626</v>
+        <v>0.5088188803381622</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-2.478091727174558</v>
+        <v>-1.943267943219038</v>
       </c>
       <c r="T9">
         <v>-2.516192391304348</v>
       </c>
       <c r="U9">
-        <v>4.994284118478905</v>
+        <v>4.459460334523386</v>
       </c>
       <c r="V9">
         <v>5.00535652173913</v>
@@ -1171,19 +1171,19 @@
         <v>94.86764298385783</v>
       </c>
       <c r="C10">
-        <v>35.47564958432296</v>
+        <v>40.23481678988487</v>
       </c>
       <c r="D10">
-        <v>9.824330652353886</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.4912165326176943</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.777419032925362</v>
+        <v>0.3997611631680402</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3764250124943493</v>
+        <v>0.4014368527243385</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01108150856593992</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>9.813249143787946</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1219,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-0</v>
+        <v>-0.2525683455180823</v>
       </c>
       <c r="T10">
-        <v>-3.967896752303625</v>
+        <v>-3.978978260869565</v>
       </c>
       <c r="U10">
-        <v>3.967896752303625</v>
+        <v>4.231546606387647</v>
       </c>
       <c r="V10">
         <v>4.951523913043479</v>
@@ -1242,28 +1242,28 @@
         <v>142.7665324873374</v>
       </c>
       <c r="C11">
-        <v>84.59730284609239</v>
+        <v>38.97197506229445</v>
       </c>
       <c r="D11">
-        <v>-3.974632199276142</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.1987316099638071</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.472461713944183</v>
+        <v>0.8587742957647918</v>
       </c>
       <c r="H11">
-        <v>0.5674444570031747</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7546723105213059</v>
+        <v>0.7354044100312156</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1287,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>3.974632199276142</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.2303296281334299</v>
+        <v>-0.09536872269994312</v>
       </c>
       <c r="T11">
         <v>-5.055729347826087</v>
       </c>
       <c r="U11">
-        <v>5.286058975959517</v>
+        <v>5.151098070526031</v>
       </c>
       <c r="V11">
         <v>5.2895</v>
@@ -1313,7 +1313,7 @@
         <v>130.3349085258269</v>
       </c>
       <c r="C12">
-        <v>63.57249370904453</v>
+        <v>38.49513144879474</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.417197742472847</v>
+        <v>1.315354220436486</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.181796522291747</v>
+        <v>1.139361721443263</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-3.370438345920067</v>
+        <v>-3.044855573595684</v>
       </c>
       <c r="T12">
         <v>-5.69694456521739</v>
       </c>
       <c r="U12">
-        <v>9.067382911137457</v>
+        <v>8.741800138813074</v>
       </c>
       <c r="V12">
         <v>9.073508695652174</v>
@@ -1384,7 +1384,7 @@
         <v>94.46085730755678</v>
       </c>
       <c r="C13">
-        <v>46.72030197944419</v>
+        <v>23.27085358081631</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8718445027991216</v>
+        <v>0.5711123158485615</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7279016211687326</v>
+        <v>0.602596543272666</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-1.527375139591329</v>
+        <v>-0.200846019830287</v>
       </c>
       <c r="T13">
         <v>-6.178479347826087</v>
       </c>
       <c r="U13">
-        <v>7.705854487417416</v>
+        <v>6.379325367656374</v>
       </c>
       <c r="V13">
         <v>7.7203</v>
@@ -1455,7 +1455,7 @@
         <v>112.4862112330598</v>
       </c>
       <c r="C14">
-        <v>39.08342628148755</v>
+        <v>22.26662348166488</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.028861814769366</v>
+        <v>1.004822267125339</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8586317173526293</v>
+        <v>0.8486152391676182</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.739772945981677</v>
+        <v>-1.650726670218525</v>
       </c>
       <c r="T14">
         <v>-5.893444565217392</v>
       </c>
       <c r="U14">
-        <v>7.633217511199069</v>
+        <v>7.544171235435917</v>
       </c>
       <c r="V14">
         <v>7.644302173913044</v>
@@ -1526,19 +1526,19 @@
         <v>83.37399895636226</v>
       </c>
       <c r="C15">
-        <v>30.38456155157917</v>
+        <v>14.01299013057226</v>
       </c>
       <c r="D15">
-        <v>7.531486506500399</v>
+        <v>9.423430848758539</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3765743253250199</v>
+        <v>0.4711715424379269</v>
       </c>
       <c r="G15">
-        <v>-0.421732175451534</v>
+        <v>-0.6962447977416515</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4497446352145897</v>
+        <v>0.3787230822564174</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03401086029915046</v>
+        <v>0.8858538071073605</v>
       </c>
       <c r="P15">
-        <v>7.497475646201249</v>
+        <v>8.537577041651179</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>-0</v>
       </c>
       <c r="T15">
-        <v>-5.394303270135632</v>
+        <v>-4.542460323327422</v>
       </c>
       <c r="U15">
-        <v>5.394303270135632</v>
+        <v>4.542460323327422</v>
       </c>
       <c r="V15">
         <v>7.506395652173913</v>
@@ -1597,28 +1597,28 @@
         <v>127.6562977853368</v>
       </c>
       <c r="C16">
-        <v>68.04199408408115</v>
+        <v>61.13014437436495</v>
       </c>
       <c r="D16">
-        <v>-4.008778829899939</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.2004389414949969</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1.485972709908138</v>
+        <v>0.9366022452352604</v>
       </c>
       <c r="H16">
-        <v>0.5117458640652606</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8130051926546852</v>
+        <v>0.7973282757348448</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>4.008778829899939</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-1.75764979571575</v>
+        <v>-1.634844127747827</v>
       </c>
       <c r="T16">
         <v>-4.611054347826087</v>
       </c>
       <c r="U16">
-        <v>6.368704143541837</v>
+        <v>6.245898475573914</v>
       </c>
       <c r="V16">
         <v>6.377708695652173</v>
@@ -1668,19 +1668,19 @@
         <v>77.33234842569557</v>
       </c>
       <c r="C17">
-        <v>39.20985095600272</v>
+        <v>52.95592373562581</v>
       </c>
       <c r="D17">
-        <v>9.879347666390387</v>
+        <v>7.408815252874838</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4939673833195194</v>
+        <v>0.3704407626437419</v>
       </c>
       <c r="G17">
-        <v>-0.7704538047501013</v>
+        <v>-0.5487603440234586</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2571509851237904</v>
+        <v>0.2508434623303668</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.01522939385937905</v>
+        <v>0.09679322738868423</v>
       </c>
       <c r="P17">
-        <v>9.864118272531009</v>
+        <v>7.312022025486154</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>-0</v>
       </c>
       <c r="T17">
-        <v>-3.325270606140621</v>
+        <v>-3.243706772611316</v>
       </c>
       <c r="U17">
-        <v>3.325270606140621</v>
+        <v>3.243706772611316</v>
       </c>
       <c r="V17">
         <v>5.088832608695652</v>
@@ -1739,28 +1739,28 @@
         <v>139.8086256272565</v>
       </c>
       <c r="C18">
-        <v>88.60658928795466</v>
+        <v>90</v>
       </c>
       <c r="D18">
-        <v>-4.19597750742563</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.2097988753712815</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.402630621895556</v>
+        <v>0.8119191572951586</v>
       </c>
       <c r="H18">
-        <v>0.5866338484760587</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6811952238670849</v>
+        <v>0.6794962171486106</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>4.19597750742563</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-2.896766551007846</v>
+        <v>-2.884614176926121</v>
       </c>
       <c r="T18">
         <v>-1.975573913043479</v>
       </c>
       <c r="U18">
-        <v>4.872340464051325</v>
+        <v>4.8601880899696</v>
       </c>
       <c r="V18">
         <v>4.880908695652174</v>
@@ -1810,19 +1810,19 @@
         <v>94.82122737106674</v>
       </c>
       <c r="C19">
-        <v>53.14286899578728</v>
+        <v>75.5769291153694</v>
       </c>
       <c r="D19">
-        <v>7.371426200842544</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.3685713100421272</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>-1.359406920495723</v>
+        <v>0.04984325162044556</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06464252473908538</v>
+        <v>0.3029373391189938</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.01246730507062477</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>7.358958895771919</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-0</v>
+        <v>-2.500628348578555</v>
       </c>
       <c r="T19">
-        <v>-0.6817305210163318</v>
+        <v>-0.6941978260869566</v>
       </c>
       <c r="U19">
-        <v>0.6817305210163318</v>
+        <v>3.194826174665512</v>
       </c>
       <c r="V19">
         <v>5.951606521739131</v>
@@ -1881,7 +1881,7 @@
         <v>115.3177193050301</v>
       </c>
       <c r="C20">
-        <v>90</v>
+        <v>63.07378737247662</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.1266214662898723</v>
+        <v>0.07490111956790424</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4197095787077771</v>
+        <v>0.3981594342402904</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-3.475051823552939</v>
+        <v>-3.288175560326784</v>
       </c>
       <c r="T20">
         <v>-0.1645413043478261</v>
       </c>
       <c r="U20">
-        <v>3.639593127900765</v>
+        <v>3.45271686467461</v>
       </c>
       <c r="V20">
         <v>6.364167391304347</v>
@@ -1952,7 +1952,7 @@
         <v>104.9907459496491</v>
       </c>
       <c r="C21">
-        <v>72.6247408822353</v>
+        <v>46.6329095708427</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.006917672002814568</v>
+        <v>-0.5660600257215994</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3099512586675973</v>
+        <v>0.07697527795143698</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-2.95217693582482</v>
+        <v>-0.7331625016585019</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>2.95217693582482</v>
+        <v>0.7331625016585019</v>
       </c>
       <c r="V21">
         <v>5.959260869565217</v>
@@ -2023,7 +2023,7 @@
         <v>96.24046538329668</v>
       </c>
       <c r="C22">
-        <v>57.86385620311121</v>
+        <v>42.96709706255019</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.673197205902794</v>
+        <v>-0.6757119889342148</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.003148491038127834</v>
+        <v>0.002100664775035863</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-0.0327148359641482</v>
+        <v>-0.0218272508000616</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>0.0327148359641482</v>
+        <v>0.0218272508000616</v>
       </c>
       <c r="V22">
         <v>5.894554347826086</v>
@@ -2094,7 +2094,7 @@
         <v>129.2453153423419</v>
       </c>
       <c r="C23">
-        <v>57.70028202329047</v>
+        <v>42.85796080854988</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3452201332900569</v>
+        <v>0.0747575740938427</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4954233985247721</v>
+        <v>0.3827306655263495</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.833201978829999</v>
+        <v>-2.961273021869936</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.833201978829999</v>
+        <v>2.961273021869936</v>
       </c>
       <c r="V23">
         <v>5.440532608695652</v>
@@ -2165,28 +2165,28 @@
         <v>134.6209201425763</v>
       </c>
       <c r="C24">
-        <v>38.53427212914048</v>
+        <v>28.05159569920021</v>
       </c>
       <c r="D24">
-        <v>-0.004309342372644132</v>
+        <v>-0.01571147073085211</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.0002154671186322066</v>
+        <v>0.0007855735365426053</v>
       </c>
       <c r="G24">
-        <v>0.4907400989639744</v>
+        <v>0.4574015422860896</v>
       </c>
       <c r="H24">
-        <v>0.0005801276354147459</v>
+        <v>0.002115092646580467</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4984400260041449</v>
+        <v>0.4839093919670405</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.004309342372644132</v>
+        <v>0.01571147073085211</v>
       </c>
       <c r="S24">
-        <v>-3.702545083455451</v>
+        <v>-3.594607669109189</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>3.702545083455451</v>
+        <v>3.594607669109189</v>
       </c>
       <c r="V24">
         <v>4.370891304347826</v>
@@ -2236,7 +2236,7 @@
         <v>105.9716222151143</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0</v>
